--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,12 +2798,123 @@
           <t>Device table not visible after search</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>2025-10-20T20:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>237196</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TC101687</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:28:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>237196</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TC101687</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:35:09</t>
         </is>
       </c>
     </row>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2909,12 +2909,1341 @@
           <t>Could not determine a valid time option to select.</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>2025-10-20T20:35:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>237196</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TC101687</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:43:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>100133</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>100197</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>100543</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>100679</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>100725</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>100727</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>100733</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>100767</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>100787</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101307" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    52 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+    - waiting for element to be visible, enabled and editable
+  - element was detached from the DOM, retrying
+    - locator resolved to &lt;input type="text" value="TC101307" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    35 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>100901</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101307" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101673")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    88 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>100921</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Target page, context or browser has been closed
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101307" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    28 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>100925</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>100948</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>100949</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>100961</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>100964</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>100976</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>101055</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>101070</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>101146</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:47:28</t>
         </is>
       </c>
     </row>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4238,12 +4238,2028 @@
           <t>Page.wait_for_selector: Target page, context or browser has been closed</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
           <t>2025-10-20T20:47:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>100133</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>100197</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>100543</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>100679</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>100725</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:58:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>100727</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>100733</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>100767</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>100787</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>100901</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>100921</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>100925</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>100948</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>100949</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>100961</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>100964</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>100976</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2025-10-20T20:59:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>101055</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>101070</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>101146</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>101178</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>101195</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>101196</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>101206</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>101215</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>101252</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>101261</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>101274</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>101278</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>101284</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>101301</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>101303</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>101325</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>101353</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>101360</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>101383</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>101395</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101673" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101307")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    88 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>101414</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Device table not visible after search</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:01:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>101427</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>101433</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>101437</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:01:51</t>
         </is>
       </c>
     </row>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6254,12 +6254,715 @@
           <t>Device already upgraded; skipped</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
           <t>2025-10-20T21:01:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>100133</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>100197</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>100543</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>100679</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>100725</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>100727</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>100733</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>100767</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>100787</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:17:47</t>
         </is>
       </c>
     </row>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6957,12 +6957,123 @@
           <t>Could not determine a valid time option to select.</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
           <t>2025-10-20T21:17:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:32:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:49:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Could not determine a valid time option to select.</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:50:30</t>
         </is>
       </c>
     </row>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7068,12 +7068,217 @@
           <t>Could not determine a valid time option to select.</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
           <t>2025-10-20T21:50:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ERROR: String was not recognized as a valid DateTime.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>+11:00</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2025-10-20T21:59:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ERROR: String was not recognized as a valid DateTime.</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>+11:00</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2025-10-20T22:12:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ERROR: String was not recognized as a valid DateTime.</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2025-10-20T22:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ERROR: String was not recognized as a valid DateTime.</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2025-10-20T22:42:16</t>
         </is>
       </c>
     </row>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7282,6 +7282,1719 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020080220.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020080220.txt</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:02:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>100133</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>100197</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>100543</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>100679</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>100725</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>100727</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>100733</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>100767</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>100787</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:03:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>100901</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>100921</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>100925</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>100948</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>100949</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>100961</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>100964</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>100976</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>101055</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>101070</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>101146</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>101178</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>101195</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>101196</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>101206</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020080445.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020080445.txt</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>101215</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>101252</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>101261</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020080500.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020080500.txt</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:05:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>101274</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:05:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>101278</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:05:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>101284</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:05:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>101301</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:05:16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/downloads/FirmwareLog.xlsx
+++ b/downloads/FirmwareLog.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8986,12 +8986,7460 @@
           <t>Device already upgraded; skipped</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
           <t>2025-10-20T23:05:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>100133</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>100197</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>100543</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>100679</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>100725</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>100727</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>100733</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>100767</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>100787</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>100901</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>100921</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>100925</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>100948</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>100949</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>100961</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>100964</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>100976</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>101055</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>101070</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>101146</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>101178</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>101195</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>101196</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>101206</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>101215</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>101252</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>101261</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>101274</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>101278</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>101284</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>101301</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>101303</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>101325</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>101353</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>101360</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>101383</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>101395</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082314.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082314.txt</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>101414</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>101427</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>101433</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>101437</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>101441</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>101443</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>101454</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>101630</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>101648</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>101650</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>101663</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>101678</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>101696</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>101699</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>TC101309</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>101719</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>101745</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>101749</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>101754</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>101758</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>102063</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>TC101312</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082401.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082401.txt</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>102075</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>102126</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>102144</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>102160</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>102183</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>103112</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>103113</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>103129</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082428.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082428.txt</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>103142</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>103146</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101673")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>103147</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101673")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>103300</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>103301</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>103358</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>103373</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>103386</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>103391</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>103393</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>103398</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>103403</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>103405</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>103435</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>103441</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>103477</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082743.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082743.txt</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:27:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>103499</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101673" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:28:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>103748</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101673" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>103767</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>103770</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>103787</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>103799</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>103813</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>103815</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>103830</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>TC101650</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>103838</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>103843</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>103847</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>103849</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>103850</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082950.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020082950.txt</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:29:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>103855</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:30:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>103856</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:31:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>103857</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101673")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:32:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>103858</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101672" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101672")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:32:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>103863</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Please select an OpCo.</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:32:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>103868</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:33:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>103871</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:33:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>100133</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>100197</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>100225</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>100543</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>100646</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>100679</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>100721</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>100725</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>100727</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>100733</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>100767</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>100787</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>100815</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>100901</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>100921</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>100925</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>100948</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>100949</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>100961</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>100964</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>100976</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>101055</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:45:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>101070</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>101146</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>101178</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>101195</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>101196</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>101206</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>101215</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>101252</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>101261</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>TC101307</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>101274</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>101278</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>101284</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>101301</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>101303</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>101325</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>101353</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>101360</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>101383</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>101414</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>101427</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>101433</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>101437</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>101441</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>101443</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>101454</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>101630</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>101648</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>101650</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>101663</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>101678</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>101696</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>101699</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>TC101309</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>NotEligible</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Device is in non-communicating state.</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>101719</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>101745</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>101749</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>101754</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>101758</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>102075</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>102126</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>102144</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>102160</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>102183</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>103112</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>103113</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>103142</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>TC101672</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>AlreadyUpgraded</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Device already upgraded; skipped</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>103146</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020084723.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020084723.txt</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>12 AM</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>(UTC+11:00) Canberra, Melbourne, Sydney</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>103146</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>FIRMWARE SINGLE Request Transaction Submitted: Records: 1 | IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020084723.txt | FIRMWARE SINGLE Request Transaction Submitted: Records: 1 IFFileName:FWUDDATETIMEREGISTRATIONREQUEST20251020084723.txt</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>103147</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>TC101673</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>FXAU</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.fill: Timeout 45000ms exceeded.
+Call log:
+  - waiting for locator("#MainContent_ProductCode")
+    - locator resolved to &lt;input type="text" value="TC101673" readonly="readonly" id="MainContent_ProductCode" name="ctl00$MainContent$ProductCode"/&gt;
+    - fill("TC101673")
+  - attempting fill action
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and editable
+      - element is not editable
+    - retrying fill action
+      - waiting 100ms
+    87 × waiting for element to be visible, enabled and editable
+       - element is not editable
+     - retrying fill action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>2025-10-20T23:48:09</t>
         </is>
       </c>
     </row>
